--- a/parts/lc256_v12_bom_all.xlsx
+++ b/parts/lc256_v12_bom_all.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vossi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vossi/--development/lc256-computer/parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB5794-5A38-BC49-89B7-34850542E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591CBBA-B67E-3645-9343-99FE7BD64F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23960" yWindow="1260" windowWidth="23100" windowHeight="16700" xr2:uid="{D06CE81A-DE5F-1E43-8D15-8E3E3F081FC9}"/>
   </bookViews>
@@ -1801,9 +1801,6 @@
     <t>3.5mm stereo audio jack black</t>
   </si>
   <si>
-    <t>DS-8-101 270 Deg, Yamaha MSX RGB standard</t>
-  </si>
-  <si>
     <t>DS-6-102, or from C64/1541 board</t>
   </si>
   <si>
@@ -1937,6 +1934,9 @@
   </si>
   <si>
     <t>alternate dual-power LED</t>
+  </si>
+  <si>
+    <t>DS-8-101 270 Deg, Panasonic MSX RGB standard</t>
   </si>
 </sst>
 </file>
@@ -2325,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F4230-F2D2-7841-881B-60FABC8B499C}">
   <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4112,7 +4112,7 @@
         <v>219</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>223</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>571</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
         <v>226</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>234</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4194,7 +4194,7 @@
         <v>234</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4211,7 +4211,7 @@
         <v>234</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>234</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4245,7 +4245,7 @@
         <v>234</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4262,7 +4262,7 @@
         <v>234</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>234</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4296,7 +4296,7 @@
         <v>250</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4381,7 +4381,7 @@
         <v>264</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
         <v>266</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>266</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4432,7 +4432,7 @@
         <v>270</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
         <v>266</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4466,7 +4466,7 @@
         <v>270</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4483,7 +4483,7 @@
         <v>270</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
         <v>270</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
         <v>270</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>266</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>270</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>270</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>270</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4602,7 +4602,7 @@
         <v>270</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
         <v>293</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4636,7 +4636,7 @@
         <v>264</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4653,7 +4653,7 @@
         <v>264</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>264</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>264</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>300</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>266</v>
@@ -4704,7 +4704,7 @@
         <v>266</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4712,7 +4712,7 @@
         <v>301</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>266</v>
@@ -4721,7 +4721,7 @@
         <v>266</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4738,7 +4738,7 @@
         <v>270</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
         <v>266</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
         <v>234</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>266</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>266</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>266</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>312</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>270</v>
@@ -4840,7 +4840,7 @@
         <v>270</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4848,7 +4848,7 @@
         <v>313</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>270</v>
@@ -4857,7 +4857,7 @@
         <v>270</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>314</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>270</v>
@@ -4874,7 +4874,7 @@
         <v>270</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4882,7 +4882,7 @@
         <v>315</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>270</v>
@@ -4891,7 +4891,7 @@
         <v>270</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>318</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>318</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>318</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>326</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,7 +4976,7 @@
         <v>326</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>326</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5010,7 +5010,7 @@
         <v>805</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>431</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -6136,7 +6136,7 @@
         <v>435</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>435</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6272,7 +6272,7 @@
         <v>453</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -6283,7 +6283,7 @@
         <v>458</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -6297,7 +6297,7 @@
         <v>514</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -6327,13 +6327,13 @@
         <v>455</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>457</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">

--- a/parts/lc256_v12_bom_all.xlsx
+++ b/parts/lc256_v12_bom_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vossi/--development/lc256-computer/parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E591CBBA-B67E-3645-9343-99FE7BD64F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60042A6-8C9F-2D4E-AD32-89C6D220CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23960" yWindow="1260" windowWidth="23100" windowHeight="16700" xr2:uid="{D06CE81A-DE5F-1E43-8D15-8E3E3F081FC9}"/>
   </bookViews>
@@ -1450,9 +1450,6 @@
     <t>HC49COMBI</t>
   </si>
   <si>
-    <t>5x</t>
-  </si>
-  <si>
     <t>1x</t>
   </si>
   <si>
@@ -1937,6 +1934,9 @@
   </si>
   <si>
     <t>DS-8-101 270 Deg, Panasonic MSX RGB standard</t>
+  </si>
+  <si>
+    <t>4x</t>
   </si>
 </sst>
 </file>
@@ -2325,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F4230-F2D2-7841-881B-60FABC8B499C}">
   <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2496,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2541,7 +2541,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2592,7 +2592,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2609,7 +2609,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2626,7 +2626,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,7 +2671,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2744,7 +2744,7 @@
         <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3083,7 +3083,7 @@
         <v>805</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -3100,7 +3100,7 @@
         <v>805</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -3117,7 +3117,7 @@
         <v>805</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -3134,7 +3134,7 @@
         <v>805</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -3151,7 +3151,7 @@
         <v>805</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -3168,7 +3168,7 @@
         <v>805</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -3185,7 +3185,7 @@
         <v>805</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -3202,7 +3202,7 @@
         <v>805</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
         <v>805</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -3236,7 +3236,7 @@
         <v>805</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3337,7 +3337,7 @@
         <v>22</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3368,7 +3368,7 @@
         <v>107</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3385,7 +3385,7 @@
         <v>107</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -3402,7 +3402,7 @@
         <v>107</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3419,7 +3419,7 @@
         <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -3436,7 +3436,7 @@
         <v>107</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -3453,7 +3453,7 @@
         <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -3498,7 +3498,7 @@
         <v>107</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -3529,7 +3529,7 @@
         <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -3546,7 +3546,7 @@
         <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -3563,7 +3563,7 @@
         <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>125</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -3597,7 +3597,7 @@
         <v>125</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
         <v>125</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -3622,7 +3622,7 @@
         <v>130</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>131</v>
@@ -3631,7 +3631,7 @@
         <v>132</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -3639,7 +3639,7 @@
         <v>133</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>131</v>
@@ -3648,7 +3648,7 @@
         <v>132</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -3656,7 +3656,7 @@
         <v>134</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>135</v>
@@ -3665,7 +3665,7 @@
         <v>136</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -3682,7 +3682,7 @@
         <v>140</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <v>143</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3716,7 +3716,7 @@
         <v>143</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3724,7 +3724,7 @@
         <v>145</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>146</v>
@@ -3733,7 +3733,7 @@
         <v>125</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3750,7 +3750,7 @@
         <v>153</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>156</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3784,7 +3784,7 @@
         <v>160</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3801,7 +3801,7 @@
         <v>165</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3818,7 +3818,7 @@
         <v>168</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
         <v>171</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <v>171</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3869,7 +3869,7 @@
         <v>171</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3928,7 +3928,7 @@
         <v>182</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
         <v>185</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3976,7 +3976,7 @@
         <v>191</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -3993,7 +3993,7 @@
         <v>195</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4010,7 +4010,7 @@
         <v>199</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4027,7 +4027,7 @@
         <v>199</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4044,7 +4044,7 @@
         <v>205</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>205</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -4078,7 +4078,7 @@
         <v>211</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>215</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4112,7 +4112,7 @@
         <v>219</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>223</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4146,7 +4146,7 @@
         <v>226</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>234</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4194,7 +4194,7 @@
         <v>234</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4211,7 +4211,7 @@
         <v>234</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4228,7 +4228,7 @@
         <v>234</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4245,7 +4245,7 @@
         <v>234</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4262,7 +4262,7 @@
         <v>234</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>234</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4296,7 +4296,7 @@
         <v>250</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4313,7 +4313,7 @@
         <v>254</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -4330,7 +4330,7 @@
         <v>254</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
         <v>254</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4364,7 +4364,7 @@
         <v>254</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -4381,7 +4381,7 @@
         <v>264</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
         <v>266</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4415,7 +4415,7 @@
         <v>266</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4432,7 +4432,7 @@
         <v>270</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
         <v>266</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4466,7 +4466,7 @@
         <v>270</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4483,7 +4483,7 @@
         <v>270</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
         <v>270</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4517,7 +4517,7 @@
         <v>270</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4534,7 +4534,7 @@
         <v>266</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
         <v>270</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>270</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4585,7 +4585,7 @@
         <v>270</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4602,7 +4602,7 @@
         <v>270</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
         <v>293</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4636,7 +4636,7 @@
         <v>264</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4653,7 +4653,7 @@
         <v>264</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>264</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4687,7 +4687,7 @@
         <v>264</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4695,7 +4695,7 @@
         <v>300</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>266</v>
@@ -4704,7 +4704,7 @@
         <v>266</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4712,7 +4712,7 @@
         <v>301</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>266</v>
@@ -4721,7 +4721,7 @@
         <v>266</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4738,7 +4738,7 @@
         <v>270</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
         <v>266</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
         <v>234</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>266</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>266</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>266</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4831,7 +4831,7 @@
         <v>312</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>270</v>
@@ -4840,7 +4840,7 @@
         <v>270</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4848,7 +4848,7 @@
         <v>313</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>270</v>
@@ -4857,7 +4857,7 @@
         <v>270</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>314</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>270</v>
@@ -4874,7 +4874,7 @@
         <v>270</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4882,7 +4882,7 @@
         <v>315</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>270</v>
@@ -4891,7 +4891,7 @@
         <v>270</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>318</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>318</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>318</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
         <v>326</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,7 +4976,7 @@
         <v>326</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -4993,7 +4993,7 @@
         <v>326</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5010,7 +5010,7 @@
         <v>805</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>431</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -6136,7 +6136,7 @@
         <v>435</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -6153,7 +6153,7 @@
         <v>435</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6272,73 +6272,73 @@
         <v>453</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>454</v>
+        <v>616</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -6359,7 +6359,7 @@
         <v>160</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,7 @@
         <v>805</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -6393,7 +6393,7 @@
         <v>805</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -6440,7 +6440,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -6586,15 +6586,15 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -6603,10 +6603,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6684,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -6698,7 +6698,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -6712,7 +6712,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -6852,7 +6852,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -6866,7 +6866,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -6894,7 +6894,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -6908,7 +6908,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -6922,7 +6922,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -6936,7 +6936,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -6950,7 +6950,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -6964,7 +6964,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -6978,7 +6978,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -6992,7 +6992,7 @@
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -7006,7 +7006,7 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -7020,7 +7020,7 @@
         <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -7048,7 +7048,7 @@
         <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -7062,7 +7062,7 @@
         <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -7076,7 +7076,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
@@ -7090,7 +7090,7 @@
         <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -7104,7 +7104,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -7118,7 +7118,7 @@
         <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
@@ -7132,16 +7132,16 @@
         <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -7149,16 +7149,16 @@
         <v>126</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -7166,16 +7166,16 @@
         <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -7183,16 +7183,16 @@
         <v>130</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -7200,16 +7200,16 @@
         <v>133</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>480</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -7217,16 +7217,16 @@
         <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -7234,16 +7234,16 @@
         <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -7251,16 +7251,16 @@
         <v>186</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -7268,7 +7268,7 @@
         <v>190</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>214</v>
@@ -7277,7 +7277,7 @@
         <v>215</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -7285,7 +7285,7 @@
         <v>192</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>214</v>
@@ -7294,7 +7294,7 @@
         <v>215</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -7302,7 +7302,7 @@
         <v>265</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>270</v>
@@ -7311,7 +7311,7 @@
         <v>270</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>267</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>270</v>
@@ -7328,7 +7328,7 @@
         <v>270</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -7336,7 +7336,7 @@
         <v>323</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>325</v>
@@ -7345,7 +7345,7 @@
         <v>326</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -7367,7 +7367,7 @@
         <v>336</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>333</v>
@@ -7395,7 +7395,7 @@
         <v>339</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>333</v>
@@ -7409,7 +7409,7 @@
         <v>341</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>333</v>
@@ -7437,7 +7437,7 @@
         <v>343</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>333</v>
@@ -7507,7 +7507,7 @@
         <v>349</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>333</v>
@@ -7535,7 +7535,7 @@
         <v>352</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>333</v>
@@ -7563,7 +7563,7 @@
         <v>354</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>333</v>
@@ -7689,7 +7689,7 @@
         <v>365</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>333</v>
@@ -7703,7 +7703,7 @@
         <v>366</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>333</v>
@@ -7717,7 +7717,7 @@
         <v>367</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>333</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7793,19 +7793,19 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -7838,19 +7838,19 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="D85" s="1">
         <v>1207</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -7940,16 +7940,16 @@
         <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7957,16 +7957,16 @@
         <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7977,13 +7977,13 @@
         <v>260</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7994,13 +7994,13 @@
         <v>258</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -8011,13 +8011,13 @@
         <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -8028,13 +8028,13 @@
         <v>256</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -8042,7 +8042,7 @@
         <v>265</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>266</v>
@@ -8051,7 +8051,7 @@
         <v>266</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8068,7 +8068,7 @@
         <v>266</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -8076,7 +8076,7 @@
         <v>268</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>266</v>
@@ -8085,7 +8085,7 @@
         <v>266</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -8093,7 +8093,7 @@
         <v>271</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>266</v>
@@ -8102,7 +8102,7 @@
         <v>266</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8121,13 +8121,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/parts/lc256_v12_bom_all.xlsx
+++ b/parts/lc256_v12_bom_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vossi/--development/lc256-computer/parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60042A6-8C9F-2D4E-AD32-89C6D220CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4615E812-0E10-9B40-BABB-ABA82682B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23960" yWindow="1260" windowWidth="23100" windowHeight="16700" xr2:uid="{D06CE81A-DE5F-1E43-8D15-8E3E3F081FC9}"/>
+    <workbookView xWindow="7560" yWindow="1940" windowWidth="23100" windowHeight="16700" xr2:uid="{D06CE81A-DE5F-1E43-8D15-8E3E3F081FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Mainboard" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="618">
   <si>
     <t>Part</t>
   </si>
@@ -211,9 +211,6 @@
     <t>C22</t>
   </si>
   <si>
-    <t>47p</t>
-  </si>
-  <si>
     <t>C23</t>
   </si>
   <si>
@@ -1937,6 +1934,12 @@
   </si>
   <si>
     <t>4x</t>
+  </si>
+  <si>
+    <t>5pf or NONE</t>
+  </si>
+  <si>
+    <t>not needed!</t>
   </si>
 </sst>
 </file>
@@ -1960,12 +1963,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1989,7 +1998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1997,6 +2006,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2325,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F4230-F2D2-7841-881B-60FABC8B499C}">
   <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2506,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2541,7 +2551,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2558,7 +2568,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2575,7 +2585,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2592,7 +2602,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2609,7 +2619,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2626,7 +2636,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,26 +2681,29 @@
         <v>22</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1">
-        <v>805</v>
+      <c r="B23" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>805</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -2704,7 +2717,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -2718,7 +2731,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -2732,24 +2745,24 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -2763,7 +2776,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
@@ -2777,7 +2790,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -2791,7 +2804,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -2805,10 +2818,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
@@ -2819,7 +2832,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -2833,7 +2846,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -2847,7 +2860,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
@@ -2861,7 +2874,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -2875,7 +2888,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
@@ -2889,7 +2902,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
@@ -2903,7 +2916,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
@@ -2917,7 +2930,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -2931,7 +2944,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
@@ -2945,7 +2958,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
@@ -2959,7 +2972,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
@@ -2973,7 +2986,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -2987,7 +3000,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -3001,7 +3014,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
@@ -3015,7 +3028,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
@@ -3029,7 +3042,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
@@ -3043,10 +3056,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
@@ -3057,10 +3070,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>7</v>
@@ -3071,11 +3084,11 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
       </c>
@@ -3083,15 +3096,15 @@
         <v>805</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>7</v>
@@ -3100,15 +3113,15 @@
         <v>805</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>7</v>
@@ -3117,15 +3130,15 @@
         <v>805</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>7</v>
@@ -3134,15 +3147,15 @@
         <v>805</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
@@ -3151,15 +3164,15 @@
         <v>805</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
@@ -3168,15 +3181,15 @@
         <v>805</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
@@ -3185,15 +3198,15 @@
         <v>805</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
@@ -3202,15 +3215,15 @@
         <v>805</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>7</v>
@@ -3219,15 +3232,15 @@
         <v>805</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
@@ -3236,15 +3249,15 @@
         <v>805</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
@@ -3255,7 +3268,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>11</v>
@@ -3269,10 +3282,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>7</v>
@@ -3283,7 +3296,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>11</v>
@@ -3297,7 +3310,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>11</v>
@@ -3311,7 +3324,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>11</v>
@@ -3325,7 +3338,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>20</v>
@@ -3337,12 +3350,12 @@
         <v>22</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>11</v>
@@ -3356,1672 +3369,1672 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E69" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="D85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E89" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="D91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E94" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E97" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C100" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C101" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="C109" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E109" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="C111" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="C119" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="C120" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="C121" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="C122" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C123" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C124" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E125" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="C127" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E127" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="C128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E128" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C129" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E130" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="D131" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="D133" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="C145" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="C146" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E146" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E147" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E148" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C153" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="D161" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E164" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="C165" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E165" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="C166" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D167" s="1">
         <v>805</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C168" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D168" s="1">
         <v>805</v>
@@ -5029,13 +5042,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B169" s="1">
         <v>470</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D169" s="1">
         <v>805</v>
@@ -5043,13 +5056,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D170" s="1">
         <v>805</v>
@@ -5057,13 +5070,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D171" s="1">
         <v>805</v>
@@ -5071,13 +5084,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D172" s="1">
         <v>805</v>
@@ -5085,13 +5098,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D173" s="1">
         <v>805</v>
@@ -5099,13 +5112,13 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D174" s="1">
         <v>805</v>
@@ -5113,13 +5126,13 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B175" s="1">
         <v>43</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D175" s="1">
         <v>805</v>
@@ -5127,13 +5140,13 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B176" s="1">
         <v>75</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D176" s="1">
         <v>805</v>
@@ -5141,13 +5154,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B177" s="1">
         <v>75</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D177" s="1">
         <v>805</v>
@@ -5155,13 +5168,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B178" s="1">
         <v>75</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D178" s="1">
         <v>805</v>
@@ -5169,13 +5182,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B179" s="1">
         <v>75</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D179" s="1">
         <v>805</v>
@@ -5183,13 +5196,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B180" s="1">
         <v>75</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D180" s="1">
         <v>805</v>
@@ -5197,13 +5210,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C181" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D181" s="1">
         <v>805</v>
@@ -5211,13 +5224,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D182" s="1">
         <v>805</v>
@@ -5225,13 +5238,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D183" s="1">
         <v>805</v>
@@ -5239,13 +5252,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B184" s="1">
         <v>220</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D184" s="1">
         <v>805</v>
@@ -5253,13 +5266,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B185" s="1">
         <v>75</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D185" s="1">
         <v>805</v>
@@ -5267,13 +5280,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D186" s="1">
         <v>805</v>
@@ -5281,13 +5294,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B187" s="1">
         <v>240</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D187" s="1">
         <v>805</v>
@@ -5295,13 +5308,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D188" s="1">
         <v>805</v>
@@ -5309,13 +5322,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D189" s="1">
         <v>805</v>
@@ -5323,13 +5336,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D190" s="1">
         <v>805</v>
@@ -5337,13 +5350,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D191" s="1">
         <v>805</v>
@@ -5351,13 +5364,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D192" s="1">
         <v>805</v>
@@ -5365,13 +5378,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D193" s="1">
         <v>805</v>
@@ -5379,13 +5392,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D194" s="1">
         <v>805</v>
@@ -5393,13 +5406,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B195" s="1">
         <v>330</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D195" s="1">
         <v>805</v>
@@ -5407,13 +5420,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B196" s="1">
         <v>330</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D196" s="1">
         <v>805</v>
@@ -5421,13 +5434,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D197" s="1">
         <v>805</v>
@@ -5435,13 +5448,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D198" s="1">
         <v>805</v>
@@ -5449,13 +5462,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D199" s="1">
         <v>805</v>
@@ -5463,13 +5476,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D200" s="1">
         <v>805</v>
@@ -5477,13 +5490,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D201" s="1">
         <v>805</v>
@@ -5491,13 +5504,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B202" s="1">
         <v>22</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D202" s="1">
         <v>805</v>
@@ -5505,13 +5518,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="C203" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D203" s="1">
         <v>805</v>
@@ -5519,13 +5532,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D204" s="1">
         <v>805</v>
@@ -5533,13 +5546,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D205" s="1">
         <v>805</v>
@@ -5547,13 +5560,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B206" s="1">
         <v>22</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D206" s="1">
         <v>805</v>
@@ -5561,13 +5574,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D207" s="1">
         <v>805</v>
@@ -5575,13 +5588,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D208" s="1">
         <v>805</v>
@@ -5589,13 +5602,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D209" s="1">
         <v>805</v>
@@ -5603,13 +5616,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B210" s="1">
         <v>22</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D210" s="1">
         <v>805</v>
@@ -5617,13 +5630,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D211" s="1">
         <v>805</v>
@@ -5631,13 +5644,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D212" s="1">
         <v>805</v>
@@ -5645,13 +5658,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D213" s="1">
         <v>805</v>
@@ -5659,13 +5672,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D214" s="1">
         <v>805</v>
@@ -5673,13 +5686,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D215" s="1">
         <v>805</v>
@@ -5687,13 +5700,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D216" s="1">
         <v>805</v>
@@ -5701,13 +5714,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D217" s="1">
         <v>805</v>
@@ -5715,13 +5728,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D218" s="1">
         <v>805</v>
@@ -5729,13 +5742,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D219" s="1">
         <v>805</v>
@@ -5743,13 +5756,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D220" s="1">
         <v>805</v>
@@ -5757,13 +5770,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B221" s="1">
         <v>330</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D221" s="1">
         <v>805</v>
@@ -5771,13 +5784,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D222" s="1">
         <v>805</v>
@@ -5785,13 +5798,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="C223" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D223" s="1">
         <v>805</v>
@@ -5799,13 +5812,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D224" s="1">
         <v>805</v>
@@ -5813,13 +5826,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D225" s="1">
         <v>805</v>
@@ -5827,13 +5840,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B226" s="1">
         <v>390</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D226" s="1">
         <v>805</v>
@@ -5841,13 +5854,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B227" s="1">
         <v>220</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D227" s="1">
         <v>805</v>
@@ -5855,13 +5868,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D228" s="1">
         <v>805</v>
@@ -5869,13 +5882,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D229" s="1">
         <v>805</v>
@@ -5883,13 +5896,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D230" s="1">
         <v>805</v>
@@ -5897,13 +5910,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D231" s="1">
         <v>805</v>
@@ -5911,13 +5924,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D232" s="1">
         <v>805</v>
@@ -5925,13 +5938,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D233" s="1">
         <v>805</v>
@@ -5939,13 +5952,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D234" s="1">
         <v>805</v>
@@ -5953,13 +5966,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D235" s="1">
         <v>805</v>
@@ -5967,13 +5980,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D236" s="1">
         <v>805</v>
@@ -5981,13 +5994,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D237" s="1">
         <v>805</v>
@@ -5995,13 +6008,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D238" s="1">
         <v>805</v>
@@ -6009,13 +6022,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D239" s="1">
         <v>805</v>
@@ -6023,13 +6036,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D240" s="1">
         <v>805</v>
@@ -6037,13 +6050,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D241" s="1">
         <v>805</v>
@@ -6051,13 +6064,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D242" s="1">
         <v>805</v>
@@ -6065,13 +6078,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D243" s="1">
         <v>805</v>
@@ -6079,13 +6092,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B244" s="1">
         <v>220</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D244" s="1">
         <v>805</v>
@@ -6093,13 +6106,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B245" s="1">
         <v>470</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D245" s="1">
         <v>805</v>
@@ -6107,238 +6120,238 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D246" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="E246" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="E247" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="C248" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D248" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="E248" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D254" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="E255" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -6347,28 +6360,28 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C263" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C264" s="1" t="s">
         <v>7</v>
       </c>
@@ -6376,16 +6389,16 @@
         <v>805</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C265" s="1" t="s">
         <v>7</v>
       </c>
@@ -6393,18 +6406,18 @@
         <v>805</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="C266" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D266" s="1">
         <v>805</v>
@@ -6412,13 +6425,13 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="C267" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D267" s="1">
         <v>805</v>
@@ -6426,13 +6439,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="C268" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D268" s="1">
         <v>805</v>
@@ -6440,7 +6453,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -6449,69 +6462,69 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D274" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D275" s="1">
         <v>805</v>
@@ -6519,13 +6532,13 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D276" s="1">
         <v>805</v>
@@ -6533,7 +6546,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -6542,13 +6555,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D279" s="1">
         <v>805</v>
@@ -6563,7 +6576,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -6572,29 +6585,29 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D282" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -6603,10 +6616,10 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6697,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -6698,7 +6711,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
@@ -6712,7 +6725,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -6852,7 +6865,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -6866,7 +6879,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -6880,7 +6893,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -6894,7 +6907,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -6908,7 +6921,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -6922,7 +6935,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -6933,10 +6946,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -6947,10 +6960,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
@@ -6961,10 +6974,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -6975,10 +6988,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -6989,10 +7002,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -7003,10 +7016,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -7017,10 +7030,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -7031,7 +7044,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
@@ -7045,10 +7058,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -7059,10 +7072,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -7073,10 +7086,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
@@ -7087,10 +7100,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -7101,10 +7114,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -7115,10 +7128,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
@@ -7129,234 +7142,234 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>475</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>483</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B49" s="1">
         <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D49" s="1">
         <v>805</v>
@@ -7364,13 +7377,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D50" s="1">
         <v>805</v>
@@ -7378,13 +7391,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D51" s="1">
         <v>805</v>
@@ -7392,13 +7405,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D52" s="1">
         <v>805</v>
@@ -7406,13 +7419,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D53" s="1">
         <v>805</v>
@@ -7420,13 +7433,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D54" s="1">
         <v>805</v>
@@ -7434,13 +7447,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D55" s="1">
         <v>805</v>
@@ -7448,13 +7461,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D56" s="1">
         <v>805</v>
@@ -7462,13 +7475,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D57" s="1">
         <v>805</v>
@@ -7476,13 +7489,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D58" s="1">
         <v>805</v>
@@ -7490,13 +7503,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B59" s="1">
         <v>390</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D59" s="1">
         <v>805</v>
@@ -7504,13 +7517,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D60" s="1">
         <v>805</v>
@@ -7518,13 +7531,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D61" s="1">
         <v>805</v>
@@ -7532,13 +7545,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D62" s="1">
         <v>805</v>
@@ -7546,13 +7559,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D63" s="1">
         <v>805</v>
@@ -7560,13 +7573,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D64" s="1">
         <v>805</v>
@@ -7574,13 +7587,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D65" s="1">
         <v>805</v>
@@ -7588,13 +7601,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D66" s="1">
         <v>805</v>
@@ -7602,13 +7615,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B67" s="1">
         <v>390</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D67" s="1">
         <v>805</v>
@@ -7616,13 +7629,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D68" s="1">
         <v>805</v>
@@ -7630,13 +7643,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D69" s="1">
         <v>805</v>
@@ -7644,13 +7657,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D70" s="1">
         <v>805</v>
@@ -7658,13 +7671,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D71" s="1">
         <v>805</v>
@@ -7672,13 +7685,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D72" s="1">
         <v>805</v>
@@ -7686,13 +7699,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" s="1">
         <v>805</v>
@@ -7700,13 +7713,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D74" s="1">
         <v>805</v>
@@ -7714,13 +7727,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D75" s="1">
         <v>805</v>
@@ -7728,13 +7741,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D76" s="1">
         <v>805</v>
@@ -7742,13 +7755,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" s="1">
         <v>805</v>
@@ -7756,13 +7769,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D78" s="1">
         <v>805</v>
@@ -7770,13 +7783,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B79" s="1">
         <v>390</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D79" s="1">
         <v>805</v>
@@ -7784,7 +7797,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -7793,27 +7806,27 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>7</v>
@@ -7824,7 +7837,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
@@ -7838,19 +7851,19 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D85" s="1">
         <v>1207</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -7926,7 +7939,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -7937,183 +7950,183 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D15" s="1">
         <v>805</v>
@@ -8121,13 +8134,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/parts/lc256_v12_bom_all.xlsx
+++ b/parts/lc256_v12_bom_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vossi/--development/lc256-computer/parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4615E812-0E10-9B40-BABB-ABA82682B7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2465A1-5F58-684C-82DC-20ED437B2B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7560" yWindow="1940" windowWidth="23100" windowHeight="16700" xr2:uid="{D06CE81A-DE5F-1E43-8D15-8E3E3F081FC9}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="617">
   <si>
     <t>Part</t>
   </si>
@@ -1736,9 +1736,6 @@
   </si>
   <si>
     <t>29C256 or 27C256 (W27C512)</t>
-  </si>
-  <si>
-    <t>with V9938 only RGB output!</t>
   </si>
   <si>
     <t>better: NXP NN514260</t>
@@ -2335,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F4230-F2D2-7841-881B-60FABC8B499C}">
   <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2689,16 +2686,16 @@
         <v>40</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>805</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7">
-        <v>805</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -3694,9 +3691,6 @@
       <c r="D88" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>550</v>
-      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
@@ -3712,7 +3706,7 @@
         <v>142</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -3729,7 +3723,7 @@
         <v>142</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -3737,7 +3731,7 @@
         <v>144</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>145</v>
@@ -3746,7 +3740,7 @@
         <v>124</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -3763,7 +3757,7 @@
         <v>152</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -3780,7 +3774,7 @@
         <v>155</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -3797,7 +3791,7 @@
         <v>159</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -3814,7 +3808,7 @@
         <v>164</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -3831,7 +3825,7 @@
         <v>167</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3848,7 +3842,7 @@
         <v>170</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3865,7 +3859,7 @@
         <v>170</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3882,7 +3876,7 @@
         <v>170</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3941,7 +3935,7 @@
         <v>181</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3958,7 +3952,7 @@
         <v>184</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3989,7 +3983,7 @@
         <v>190</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -4006,7 +4000,7 @@
         <v>194</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -4023,7 +4017,7 @@
         <v>198</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -4040,7 +4034,7 @@
         <v>198</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -4091,7 +4085,7 @@
         <v>210</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -4108,7 +4102,7 @@
         <v>214</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -4125,7 +4119,7 @@
         <v>218</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -4142,7 +4136,7 @@
         <v>222</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -4159,7 +4153,7 @@
         <v>225</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -4190,7 +4184,7 @@
         <v>233</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -4207,7 +4201,7 @@
         <v>233</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -4224,7 +4218,7 @@
         <v>233</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -4241,7 +4235,7 @@
         <v>233</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -4258,7 +4252,7 @@
         <v>233</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -4275,7 +4269,7 @@
         <v>233</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -4292,7 +4286,7 @@
         <v>233</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -4309,7 +4303,7 @@
         <v>249</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -4394,7 +4388,7 @@
         <v>263</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -4411,7 +4405,7 @@
         <v>265</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -4428,7 +4422,7 @@
         <v>265</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -4445,7 +4439,7 @@
         <v>269</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -4462,7 +4456,7 @@
         <v>265</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4479,7 +4473,7 @@
         <v>269</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -4496,7 +4490,7 @@
         <v>269</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -4513,7 +4507,7 @@
         <v>269</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -4530,7 +4524,7 @@
         <v>269</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -4547,7 +4541,7 @@
         <v>265</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4564,7 +4558,7 @@
         <v>269</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -4581,7 +4575,7 @@
         <v>269</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -4598,7 +4592,7 @@
         <v>269</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -4615,7 +4609,7 @@
         <v>269</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -4632,7 +4626,7 @@
         <v>292</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4649,7 +4643,7 @@
         <v>263</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4666,7 +4660,7 @@
         <v>263</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4683,7 +4677,7 @@
         <v>263</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -4700,7 +4694,7 @@
         <v>263</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -4708,7 +4702,7 @@
         <v>299</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>265</v>
@@ -4717,7 +4711,7 @@
         <v>265</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -4725,7 +4719,7 @@
         <v>300</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>265</v>
@@ -4734,7 +4728,7 @@
         <v>265</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -4751,7 +4745,7 @@
         <v>269</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -4768,7 +4762,7 @@
         <v>265</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -4785,7 +4779,7 @@
         <v>233</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -4802,7 +4796,7 @@
         <v>265</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -4819,7 +4813,7 @@
         <v>265</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -4836,7 +4830,7 @@
         <v>265</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -4844,7 +4838,7 @@
         <v>311</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>269</v>
@@ -4853,7 +4847,7 @@
         <v>269</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -4861,7 +4855,7 @@
         <v>312</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>269</v>
@@ -4870,7 +4864,7 @@
         <v>269</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -4878,7 +4872,7 @@
         <v>313</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>269</v>
@@ -4887,7 +4881,7 @@
         <v>269</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -4895,7 +4889,7 @@
         <v>314</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>269</v>
@@ -4904,7 +4898,7 @@
         <v>269</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4921,7 +4915,7 @@
         <v>317</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -4938,7 +4932,7 @@
         <v>317</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -4955,7 +4949,7 @@
         <v>317</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -4972,7 +4966,7 @@
         <v>325</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -4989,7 +4983,7 @@
         <v>325</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -5006,7 +5000,7 @@
         <v>325</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5023,7 +5017,7 @@
         <v>805</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -6132,7 +6126,7 @@
         <v>430</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -6149,7 +6143,7 @@
         <v>434</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -6166,7 +6160,7 @@
         <v>434</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -6285,7 +6279,7 @@
         <v>452</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -6296,12 +6290,12 @@
         <v>456</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>457</v>
@@ -6310,7 +6304,7 @@
         <v>512</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -6340,13 +6334,13 @@
         <v>453</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>455</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -7876,7 +7870,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/parts/lc256_v12_bom_all.xlsx
+++ b/parts/lc256_v12_bom_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vossi/--development/lc256-computer/parts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2465A1-5F58-684C-82DC-20ED437B2B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AF453B-E0C0-FD48-A30D-38D6B21A519E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7560" yWindow="1940" windowWidth="23100" windowHeight="16700" xr2:uid="{D06CE81A-DE5F-1E43-8D15-8E3E3F081FC9}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="618">
   <si>
     <t>Part</t>
   </si>
@@ -1937,6 +1937,9 @@
   </si>
   <si>
     <t>not needed!</t>
+  </si>
+  <si>
+    <t>74AHCT245NS</t>
   </si>
 </sst>
 </file>
@@ -2332,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F4230-F2D2-7841-881B-60FABC8B499C}">
   <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3833,7 +3836,7 @@
         <v>168</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>169</v>
+        <v>617</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>169</v>
@@ -3850,7 +3853,7 @@
         <v>171</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>169</v>
+        <v>617</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>169</v>
@@ -3867,7 +3870,7 @@
         <v>172</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>169</v>
+        <v>617</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>169</v>
